--- a/data/trans_orig/P62AS1_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P62AS1_2015-Habitat-trans_orig.xlsx
@@ -696,7 +696,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>16,34%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39,08%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>23,08%</t>
         </is>
       </c>
     </row>
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>54,08%</t>
+          <t>55,52%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>24,67%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,18%</t>
+          <t>69,93%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>28,49%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>70,65%</t>
+          <t>72,13%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>55,95%</t>
+          <t>54,96%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>81,05%</t>
+          <t>81,53%</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>13,51%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>11,13%</t>
         </is>
       </c>
     </row>
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>26,66%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>44,12%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>20,41%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>79,82%</t>
+          <t>80,3%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>91,6%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>35,88%</t>
+          <t>37,03%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>55,37%</t>
+          <t>55,18%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>62,35%</t>
+          <t>62,34%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>73,82%</t>
+          <t>73,72%</t>
         </is>
       </c>
     </row>
@@ -1409,12 +1409,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>13,13%</t>
         </is>
       </c>
     </row>
@@ -1480,12 +1480,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>13,1%</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>26,68%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>40,4%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>18,08%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>75,42%</t>
+          <t>75,86%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>85,32%</t>
+          <t>85,59%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>38,03%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>53,4%</t>
+          <t>52,7%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>61,25%</t>
+          <t>61,02%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>70,58%</t>
+          <t>69,93%</t>
         </is>
       </c>
     </row>
@@ -1768,12 +1768,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>11,17%</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>12,13%</t>
         </is>
       </c>
     </row>
@@ -1931,12 +1931,12 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>30,6%</t>
+          <t>30,21%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>48,04%</t>
+          <t>48,63%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>22,73%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>78,79%</t>
+          <t>78,95%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>90,37%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>33,71%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>52,27%</t>
+          <t>52,36%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>61,36%</t>
+          <t>60,72%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>72,72%</t>
+          <t>72,26%</t>
         </is>
       </c>
     </row>
@@ -2127,12 +2127,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>25,7%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>16,25%</t>
         </is>
       </c>
     </row>
@@ -2198,12 +2198,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2219,12 +2219,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>11,09%</t>
         </is>
       </c>
     </row>
@@ -2290,12 +2290,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>29,04%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>42,18%</t>
+          <t>42,44%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>20,98%</t>
         </is>
       </c>
     </row>
@@ -2340,12 +2340,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>77,61%</t>
+          <t>78,0%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>87,12%</t>
+          <t>87,5%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>31,96%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>45,45%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>56,85%</t>
+          <t>57,1%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>66,1%</t>
+          <t>66,21%</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>12,11%</t>
         </is>
       </c>
     </row>
@@ -2557,12 +2557,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2599,12 +2599,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>10,07%</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2649,12 +2649,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>31,5%</t>
+          <t>31,52%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>18,0%</t>
         </is>
       </c>
     </row>
@@ -2699,12 +2699,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>81,03%</t>
+          <t>81,01%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>86,07%</t>
+          <t>86,17%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2720,12 +2720,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>46,92%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>62,93%</t>
+          <t>62,77%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>67,56%</t>
+          <t>67,6%</t>
         </is>
       </c>
     </row>
